--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codebase\Training1\SpiceJetUI\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872EEFD1-E03F-4731-B840-F6BE8A1263B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BCE473-64EB-4AB3-894C-E9967161C570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{8201F4C6-20B4-4E67-BFE7-8A7AAB65CF0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8201F4C6-20B4-4E67-BFE7-8A7AAB65CF0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>TEST</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>October 20 2020</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>BRASIL</t>
+  </si>
+  <si>
+    <t>October 23 2018</t>
   </si>
 </sst>
 </file>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B66F804-32B4-4B68-B938-049277098FC9}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +499,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codebase\Training1\SpiceJetUI\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BCE473-64EB-4AB3-894C-E9967161C570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38298DE-D446-4124-B7F0-181D74DF6DBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8201F4C6-20B4-4E67-BFE7-8A7AAB65CF0A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>TEST</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>October 23 2018</t>
+  </si>
+  <si>
+    <t>Flight_Test_Singleton</t>
+  </si>
+  <si>
+    <t>TEST4</t>
+  </si>
+  <si>
+    <t>Flight_Second_Test</t>
+  </si>
+  <si>
+    <t>October 15 2014</t>
   </si>
 </sst>
 </file>
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B66F804-32B4-4B68-B938-049277098FC9}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +534,75 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
